--- a/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -41,6 +41,33 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Beaver Creek North Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function, Address Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Big Meadow Creek 01</t>
   </si>
   <si>
@@ -53,12 +80,105 @@
     <t xml:space="preserve">Restore Fish Passage</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
@@ -68,9 +188,6 @@
     <t xml:space="preserve">Entiat River-Lake Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Restore Reach Function, Address Limiting Factors</t>
-  </si>
-  <si>
     <t xml:space="preserve">BT Natal Rearing,Holding and Maturation,Adult Migration</t>
   </si>
   <si>
@@ -80,18 +197,9 @@
     <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 04</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Holding</t>
   </si>
   <si>
@@ -104,9 +212,6 @@
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Restore Reach Function</t>
-  </si>
-  <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
@@ -116,334 +221,613 @@
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Buck Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cougar Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Shaser Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Nason 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek (Methow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Shaser Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 14</t>
@@ -452,24 +836,36 @@
     <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+    <t xml:space="preserve">Nason Creek Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 06</t>
   </si>
   <si>
     <t xml:space="preserve">North Shaser Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
   </si>
   <si>
     <t xml:space="preserve">Peshastin Creek Upper 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
   </si>
   <si>
@@ -482,9 +878,6 @@
     <t xml:space="preserve">Brook Trout,Cover- Wood,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Upper 05</t>
   </si>
   <si>
@@ -497,15 +890,9 @@
     <t xml:space="preserve">Peshastin Creek Upper 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Upper 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Upper 09</t>
   </si>
   <si>
@@ -522,6 +909,30 @@
   </si>
   <si>
     <t xml:space="preserve">Tronsen Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
   </si>
   <si>
     <t xml:space="preserve">Mission Creek 01</t>
@@ -907,96 +1318,96 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2"/>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3"/>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
         <v>22</v>
       </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1004,79 +1415,77 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
       </c>
       <c r="I8" t="s">
         <v>43</v>
@@ -1087,28 +1496,26 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1116,1385 +1523,3182 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
+      <c r="F15"/>
+      <c r="G15"/>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20"/>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22"/>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23"/>
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24"/>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24"/>
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25"/>
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26"/>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26"/>
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28"/>
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29"/>
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
         <v>97</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36"/>
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
+      </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38"/>
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>122</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" t="s">
-        <v>122</v>
-      </c>
+      <c r="F41"/>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42"/>
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
       <c r="F42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42"/>
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
+        <v>141</v>
+      </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43"/>
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43"/>
+        <v>147</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" t="s">
-        <v>115</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" t="s">
-        <v>24</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E45"/>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H45" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" t="s">
-        <v>145</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H47"/>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48"/>
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>162</v>
+      </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I48" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H49" t="s">
-        <v>152</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H49"/>
       <c r="I49" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="I50" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>155</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G52"/>
       <c r="H52" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I52" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>155</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G53"/>
       <c r="H53" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>163</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G54"/>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I54" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H55"/>
       <c r="I55" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+        <v>145</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I59" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H60" t="s">
+        <v>154</v>
+      </c>
+      <c r="I60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" t="s">
+        <v>174</v>
+      </c>
+      <c r="I64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" t="s">
+        <v>197</v>
+      </c>
+      <c r="I65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" t="s">
+        <v>147</v>
+      </c>
+      <c r="I69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" t="s">
         <v>171</v>
       </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="H72" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>219</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" t="s">
+        <v>222</v>
+      </c>
+      <c r="I76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" t="s">
+        <v>227</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" t="s">
         <v>13</v>
       </c>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="F80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>174</v>
+      </c>
+      <c r="H80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>170</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" t="s">
+        <v>236</v>
+      </c>
+      <c r="I82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" t="s">
+        <v>239</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s">
+        <v>170</v>
+      </c>
+      <c r="H86" t="s">
+        <v>146</v>
+      </c>
+      <c r="I86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>170</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89" t="s">
+        <v>170</v>
+      </c>
+      <c r="I89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>252</v>
+      </c>
+      <c r="H91" t="s">
+        <v>222</v>
+      </c>
+      <c r="I91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" t="s">
+        <v>252</v>
+      </c>
+      <c r="H92" t="s">
+        <v>255</v>
+      </c>
+      <c r="I92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>252</v>
+      </c>
+      <c r="H93" t="s">
+        <v>255</v>
+      </c>
+      <c r="I93" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" t="s">
+        <v>252</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" t="s">
+        <v>260</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>219</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" t="s">
+        <v>222</v>
+      </c>
+      <c r="I96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H98" t="s">
+        <v>255</v>
+      </c>
+      <c r="I98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>267</v>
+      </c>
+      <c r="H99" t="s">
+        <v>268</v>
+      </c>
+      <c r="I99" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s">
+        <v>264</v>
+      </c>
+      <c r="H100" t="s">
+        <v>271</v>
+      </c>
+      <c r="I100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" t="s">
+        <v>264</v>
+      </c>
+      <c r="H101" t="s">
+        <v>273</v>
+      </c>
+      <c r="I101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>121</v>
+      </c>
+      <c r="G102" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>121</v>
+      </c>
+      <c r="G103" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" t="s">
+        <v>222</v>
+      </c>
+      <c r="I103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" t="s">
+        <v>222</v>
+      </c>
+      <c r="I104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>279</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>121</v>
+      </c>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>121</v>
+      </c>
+      <c r="G106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>222</v>
+      </c>
+      <c r="I106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>121</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107" t="s">
+        <v>240</v>
+      </c>
+      <c r="I107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>121</v>
+      </c>
+      <c r="G108" t="s">
+        <v>275</v>
+      </c>
+      <c r="H108" t="s">
+        <v>284</v>
+      </c>
+      <c r="I108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>121</v>
+      </c>
+      <c r="G109" t="s">
+        <v>287</v>
+      </c>
+      <c r="H109" t="s">
+        <v>236</v>
+      </c>
+      <c r="I109" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G110" t="s">
+        <v>287</v>
+      </c>
+      <c r="H110" t="s">
+        <v>236</v>
+      </c>
+      <c r="I110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>289</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>121</v>
+      </c>
+      <c r="G111" t="s">
+        <v>287</v>
+      </c>
+      <c r="H111" t="s">
+        <v>290</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>121</v>
+      </c>
+      <c r="G112" t="s">
+        <v>287</v>
+      </c>
+      <c r="H112" t="s">
+        <v>255</v>
+      </c>
+      <c r="I112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" t="s">
+        <v>158</v>
+      </c>
+      <c r="H113" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" t="s">
+        <v>162</v>
+      </c>
+      <c r="H114" t="s">
+        <v>240</v>
+      </c>
+      <c r="I114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" t="s">
+        <v>155</v>
+      </c>
+      <c r="I115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>297</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>219</v>
+      </c>
+      <c r="G116" t="s">
+        <v>125</v>
+      </c>
+      <c r="H116" t="s">
+        <v>146</v>
+      </c>
+      <c r="I116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>121</v>
+      </c>
+      <c r="G117" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" t="s">
+        <v>240</v>
+      </c>
+      <c r="I117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>299</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>140</v>
+      </c>
+      <c r="G118" t="s">
+        <v>162</v>
+      </c>
+      <c r="H118" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>140</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
+      <c r="H119" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>140</v>
+      </c>
+      <c r="G120" t="s">
+        <v>162</v>
+      </c>
+      <c r="H120" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>140</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
+      <c r="H121" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>140</v>
+      </c>
+      <c r="G122" t="s">
+        <v>192</v>
+      </c>
+      <c r="H122" t="s">
+        <v>155</v>
+      </c>
+      <c r="I122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>139</v>
+      </c>
+      <c r="D123" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>140</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
+      <c r="H123" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" t="s">
+        <v>162</v>
+      </c>
+      <c r="H124" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>306</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>140</v>
+      </c>
+      <c r="G125" t="s">
+        <v>162</v>
+      </c>
+      <c r="H125" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>307</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="s">
+        <v>308</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>309</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>308</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -68,13 +68,349 @@
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
   </si>
   <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
+    <t xml:space="preserve">Chikamin Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee</t>
   </si>
   <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function, Address Limiting Factors,Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stability,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek-Brender Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Restore Fish Passage</t>
@@ -83,865 +419,628 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Mission Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Buck Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cougar Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 09</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Entiat 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Shaser Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Nason 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek North Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek North Fork 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Buck Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek</t>
+    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 03</t>
   </si>
   <si>
     <t xml:space="preserve">Brook Trout,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Cover- Wood</t>
+    <t xml:space="preserve">Nason Creek Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Shaser Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate,Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Chikamin Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cougar Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Peshastin Creek Upper 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tronsen Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tronsen Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tronsen Creek 03</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Non-Spawning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Subadult Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Cover- Wood,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Shaser Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mill Creek Nason 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Shaser Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Cover- Wood,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tronsen Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tronsen Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tronsen Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
     <t xml:space="preserve">White River Lower 07</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek-Brender Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek 02</t>
   </si>
 </sst>
 </file>
@@ -1342,243 +1441,247 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3"/>
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1587,95 +1690,103 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" t="s">
         <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1683,24 +1794,28 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
       <c r="H16" t="s">
         <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1708,377 +1823,357 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
+      <c r="F20"/>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
         <v>83</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>91</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2087,157 +2182,161 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
         <v>113</v>
       </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35"/>
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
         <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -2248,23 +2347,23 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
         <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -2272,217 +2371,221 @@
         <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" t="s">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" t="s">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39"/>
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40"/>
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41"/>
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44"/>
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
         <v>150</v>
       </c>
-      <c r="G44"/>
       <c r="H44" t="s">
         <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2490,17 +2593,19 @@
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45"/>
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G45" t="s">
         <v>154</v>
@@ -2509,7 +2614,7 @@
         <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -2520,362 +2625,386 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" t="s">
         <v>157</v>
       </c>
-      <c r="D46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>158</v>
       </c>
-      <c r="H46" t="s">
-        <v>159</v>
-      </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" t="s">
         <v>157</v>
       </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H47"/>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
       <c r="I47" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48"/>
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" t="s">
         <v>162</v>
       </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
       <c r="I48" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49"/>
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49"/>
+        <v>164</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
         <v>167</v>
       </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" t="s">
-        <v>170</v>
-      </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>169</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52"/>
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>171</v>
+      </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I52" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53"/>
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>175</v>
+      </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I53" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54"/>
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>175</v>
+      </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I54" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>169</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55"/>
       <c r="G55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55"/>
+        <v>175</v>
+      </c>
+      <c r="H55" t="s">
+        <v>176</v>
+      </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" t="s">
-        <v>121</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57" t="s">
-        <v>150</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57"/>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58" t="s">
-        <v>150</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" t="s">
         <v>189</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="60">
@@ -2883,1822 +3012,1985 @@
         <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60"/>
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="I60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61"/>
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61"/>
+        <v>187</v>
+      </c>
+      <c r="H61" t="s">
+        <v>188</v>
+      </c>
       <c r="I61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62"/>
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63"/>
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G63" t="s">
-        <v>192</v>
-      </c>
-      <c r="H63"/>
+        <v>197</v>
+      </c>
+      <c r="H63" t="s">
+        <v>195</v>
+      </c>
       <c r="I63" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65"/>
+        <v>186</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
       <c r="H65" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
-      </c>
-      <c r="G66"/>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
       <c r="H66" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" t="s">
-        <v>33</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E67"/>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I67" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>33</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E68"/>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="I68" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" t="s">
-        <v>147</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H69"/>
       <c r="I69" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E70"/>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" t="s">
-        <v>147</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H70"/>
       <c r="I70" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E71"/>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="H71" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="H72" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G73" t="s">
-        <v>215</v>
-      </c>
-      <c r="H73"/>
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>231</v>
+      </c>
       <c r="I73" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I74" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G75" t="s">
-        <v>125</v>
-      </c>
-      <c r="H75"/>
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>234</v>
+      </c>
       <c r="I75" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G76" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I76" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G77" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="I78" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G79" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H79" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="I79" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E80"/>
       <c r="F80" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G80" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
-      </c>
-      <c r="H81"/>
+        <v>218</v>
+      </c>
+      <c r="H81" t="s">
+        <v>215</v>
+      </c>
       <c r="I81" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E82"/>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="I82" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" t="s">
-        <v>38</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E83"/>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
-      </c>
-      <c r="H83" t="s">
-        <v>240</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H83"/>
       <c r="I83" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
         <v>241</v>
       </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
       <c r="D84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" t="s">
-        <v>33</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E84"/>
       <c r="F84" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
-      </c>
-      <c r="H85" t="s">
-        <v>146</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H85"/>
       <c r="I85" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86"/>
+        <v>207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
       <c r="F86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="H86" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="I86" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87"/>
+        <v>207</v>
+      </c>
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
       <c r="F87" t="s">
-        <v>169</v>
-      </c>
-      <c r="G87" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87"/>
+        <v>60</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" t="s">
+        <v>256</v>
+      </c>
       <c r="I87" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88"/>
+        <v>207</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="I88" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89"/>
+        <v>207</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90"/>
+        <v>207</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
       <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G90"/>
       <c r="H90" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="I90" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91"/>
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
       <c r="F91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" t="s">
-        <v>252</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G91"/>
       <c r="H91" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="I91" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
-      </c>
-      <c r="H92" t="s">
-        <v>255</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="H92"/>
       <c r="I92" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="H93" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="I93" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>90</v>
-      </c>
-      <c r="G94" t="s">
-        <v>252</v>
-      </c>
-      <c r="H94"/>
+        <v>186</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94" t="s">
+        <v>215</v>
+      </c>
       <c r="I94" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="G95" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
-      </c>
-      <c r="E96"/>
+        <v>274</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="H96" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I96" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E97"/>
+        <v>207</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="G97" t="s">
-        <v>125</v>
-      </c>
-      <c r="H97"/>
+        <v>278</v>
+      </c>
+      <c r="H97" t="s">
+        <v>279</v>
+      </c>
       <c r="I97" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="I98" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
-      </c>
-      <c r="E99" t="s">
-        <v>33</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E99"/>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G99" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H99" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="I99" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" t="s">
-        <v>38</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E100"/>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G100" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="H100" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="I100" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
-      </c>
-      <c r="E101"/>
+        <v>207</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
       <c r="F101" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="H101" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="I101" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
-      </c>
-      <c r="E102"/>
+        <v>207</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G102" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="I102" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103"/>
+        <v>207</v>
+      </c>
+      <c r="E103" t="s">
+        <v>40</v>
+      </c>
       <c r="F103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="I103" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="H104" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="I104" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G105" t="s">
-        <v>158</v>
-      </c>
-      <c r="H105"/>
+        <v>294</v>
+      </c>
+      <c r="H105" t="s">
+        <v>295</v>
+      </c>
       <c r="I105" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G106" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="H106" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="I106" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107"/>
+        <v>138</v>
+      </c>
+      <c r="G107" t="s">
+        <v>294</v>
+      </c>
       <c r="H107" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="I107" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G108" t="s">
-        <v>275</v>
-      </c>
-      <c r="H108" t="s">
-        <v>284</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="H108"/>
       <c r="I108" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B109" t="s">
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="G109" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="H109" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="I109" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="G110" t="s">
-        <v>287</v>
-      </c>
-      <c r="H110" t="s">
-        <v>236</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H110"/>
       <c r="I110" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E111"/>
+        <v>207</v>
+      </c>
+      <c r="E111" t="s">
+        <v>40</v>
+      </c>
       <c r="F111" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G111" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H111" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I111" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112"/>
+        <v>207</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
       <c r="F112" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G112" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H112" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="I112" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
-      </c>
-      <c r="E113"/>
+        <v>207</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
       <c r="F113" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G113" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="H113" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="I113" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G114" t="s">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="H114" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="I114" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="H115" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="I115" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="I116" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="H117" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="I117" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>162</v>
-      </c>
-      <c r="H118" t="s">
-        <v>22</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H118"/>
       <c r="I118" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I119" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s">
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" t="s">
-        <v>162</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120"/>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I120" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B121" t="s">
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="H121" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I121" t="s">
-        <v>163</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s">
         <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="I122" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="H123" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I123" t="s">
-        <v>163</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="H124" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="I124" t="s">
-        <v>163</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="H125" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I125" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D126" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
         <v>21</v>
       </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
+      <c r="G126" t="s">
+        <v>319</v>
+      </c>
+      <c r="H126" t="s">
+        <v>279</v>
+      </c>
+      <c r="I126" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D127" t="s">
+        <v>207</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
         <v>21</v>
       </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
+      <c r="G127" t="s">
+        <v>218</v>
+      </c>
+      <c r="H127" t="s">
+        <v>279</v>
+      </c>
+      <c r="I127" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>171</v>
+      </c>
+      <c r="H128" t="s">
+        <v>284</v>
+      </c>
+      <c r="I128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>337</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" t="s">
+        <v>331</v>
+      </c>
+      <c r="I129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>339</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" t="s">
+        <v>207</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>215</v>
+      </c>
+      <c r="H130" t="s">
+        <v>279</v>
+      </c>
+      <c r="I130" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>207</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>186</v>
+      </c>
+      <c r="G131" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" t="s">
+        <v>134</v>
+      </c>
+      <c r="I131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>342</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>207</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>186</v>
+      </c>
+      <c r="G132" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" t="s">
+        <v>134</v>
+      </c>
+      <c r="I132" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -59,130 +59,187 @@
     <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+    <t xml:space="preserve">Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
@@ -206,19 +263,22 @@
     <t xml:space="preserve">Cover- Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 03</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
@@ -242,13 +302,13 @@
     <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Off-Channel- Side-Channels</t>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Mills 08</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
@@ -269,7 +329,7 @@
     <t xml:space="preserve">Entiat River Potato 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
   </si>
   <si>
     <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
@@ -287,19 +347,31 @@
     <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 01</t>
@@ -308,7 +380,7 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 02</t>
@@ -320,576 +392,594 @@
     <t xml:space="preserve">Cover- Wood,Riparian-Disturbance</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Reach Function, Address Limiting Factors,Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek-Brender Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Rearing,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek North Fork 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Buck Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Reach Function, Address Limiting Factors,Restore Fish Passage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek-Brender Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore Fish Passage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing,Brook Trout,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek North Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek North Fork 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Coarse Substrate</t>
+    <t xml:space="preserve">Chiwaukum Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cougar Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Buck Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Holding and Maturation</t>
+    <t xml:space="preserve">Etienne Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Entiat 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee</t>
   </si>
   <si>
     <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwaukum Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cougar Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Creek 02</t>
+    <t xml:space="preserve">Mad River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Creek Entiat 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Limiting Factors,Restore Fish Passage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Subadult Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Pool Quantity and Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
   </si>
   <si>
@@ -899,9 +989,6 @@
     <t xml:space="preserve">Brook Trout,Cover- Wood,Pool Quantity and Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Floodplain Connectivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mad River Upper 03</t>
   </si>
   <si>
@@ -947,60 +1034,48 @@
     <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Nason Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Temperature- Rearing,Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Upper 02</t>
   </si>
   <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Shaser Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Upper 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brook Trout,Floodplain Connectivity,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Shaser Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout Management, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Upper 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout,Cover- Wood,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Upper 05</t>
   </si>
   <si>
@@ -1032,15 +1107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tronsen Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 09</t>
   </si>
 </sst>
 </file>
@@ -1470,12 +1536,14 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
@@ -1494,310 +1562,304 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1806,204 +1868,216 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19"/>
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20"/>
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22"/>
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
         <v>30</v>
@@ -2011,364 +2085,350 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F28"/>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F29"/>
-      <c r="G29" t="s">
-        <v>101</v>
-      </c>
+      <c r="G29"/>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" t="s">
-        <v>109</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" t="s">
-        <v>112</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>115</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
         <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -2377,21 +2437,27 @@
         <v>132</v>
       </c>
       <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
         <v>133</v>
       </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37"/>
       <c r="G37" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37"/>
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -2400,276 +2466,266 @@
         <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38"/>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38"/>
+        <v>140</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>138</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>138</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" t="s">
-        <v>138</v>
-      </c>
+      <c r="F44"/>
       <c r="G44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" t="s">
-        <v>24</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="F45" t="s">
-        <v>138</v>
-      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2677,28 +2733,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2706,28 +2762,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2735,28 +2791,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2764,2232 +2820,2400 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51"/>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52"/>
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53"/>
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54"/>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
       <c r="G54" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H54" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="F55"/>
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
       <c r="G55" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56"/>
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57"/>
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
-      <c r="F58"/>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s">
-        <v>186</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>186</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s">
-        <v>186</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F61"/>
       <c r="G61" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H61" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="F62" t="s">
-        <v>186</v>
-      </c>
+      <c r="F62"/>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>186</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s">
-        <v>186</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F64"/>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I64" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" t="s">
-        <v>186</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F65"/>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67"/>
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" t="s">
-        <v>211</v>
-      </c>
-      <c r="G67"/>
+        <v>218</v>
+      </c>
+      <c r="G67" t="s">
+        <v>219</v>
+      </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68"/>
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I68" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
         <v>217</v>
       </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69"/>
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
+        <v>223</v>
+      </c>
       <c r="I69" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70"/>
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
-      </c>
-      <c r="H70"/>
+        <v>228</v>
+      </c>
+      <c r="H70" t="s">
+        <v>223</v>
+      </c>
       <c r="I70" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71"/>
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72"/>
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73"/>
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="H73" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I73" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74"/>
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75"/>
+        <v>240</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
       <c r="F75" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I75" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>233</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G76"/>
       <c r="H76" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
-      </c>
-      <c r="H77"/>
+        <v>247</v>
+      </c>
+      <c r="H77" t="s">
+        <v>248</v>
+      </c>
       <c r="I77" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78"/>
+        <v>240</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
       <c r="F78" t="s">
         <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
-      </c>
-      <c r="H78" t="s">
-        <v>216</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="H78"/>
       <c r="I78" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>218</v>
-      </c>
-      <c r="H79" t="s">
-        <v>215</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="H79"/>
       <c r="I79" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="I80" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="I81" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
-      </c>
-      <c r="E82"/>
+        <v>240</v>
+      </c>
+      <c r="E82" t="s">
+        <v>46</v>
+      </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G82" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="I82" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
-      </c>
-      <c r="H83"/>
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>262</v>
+      </c>
       <c r="I83" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G84" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="I84" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D85" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
-      </c>
-      <c r="H85"/>
+        <v>241</v>
+      </c>
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
       <c r="I85" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" t="s">
-        <v>40</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="I86" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D87" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" t="s">
-        <v>35</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87"/>
+        <v>243</v>
+      </c>
+      <c r="G87" t="s">
+        <v>250</v>
+      </c>
       <c r="H87" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="I87" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" t="s">
-        <v>35</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E88"/>
       <c r="F88" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="I88" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89"/>
+        <v>243</v>
+      </c>
+      <c r="G89" t="s">
+        <v>250</v>
+      </c>
       <c r="H89" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="I89" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" t="s">
-        <v>40</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>233</v>
-      </c>
-      <c r="G90"/>
+        <v>243</v>
+      </c>
+      <c r="G90" t="s">
+        <v>250</v>
+      </c>
       <c r="H90" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="I90" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" t="s">
-        <v>40</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E91"/>
       <c r="F91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>263</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G91" t="s">
+        <v>279</v>
+      </c>
+      <c r="H91"/>
       <c r="I91" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>175</v>
-      </c>
-      <c r="H92"/>
+        <v>250</v>
+      </c>
+      <c r="H92" t="s">
+        <v>273</v>
+      </c>
       <c r="I92" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
-      </c>
-      <c r="H93" t="s">
-        <v>269</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H93"/>
       <c r="I93" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
-      </c>
-      <c r="E94"/>
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
+      </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="I94" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95"/>
+        <v>240</v>
+      </c>
+      <c r="E95" t="s">
+        <v>42</v>
+      </c>
       <c r="F95" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="G95" t="s">
-        <v>228</v>
-      </c>
-      <c r="H95"/>
+        <v>68</v>
+      </c>
+      <c r="H95" t="s">
+        <v>161</v>
+      </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" t="s">
-        <v>228</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G96"/>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
-      </c>
-      <c r="G97" t="s">
-        <v>278</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G97"/>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="I97" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>281</v>
-      </c>
-      <c r="G98" t="s">
-        <v>278</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="I98" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>295</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>278</v>
-      </c>
-      <c r="H99" t="s">
-        <v>284</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H99"/>
       <c r="I99" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100"/>
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
       <c r="F100" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H100" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="I100" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E101"/>
       <c r="F101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" t="s">
-        <v>228</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G101"/>
       <c r="H101" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="I101" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
-      </c>
-      <c r="E102" t="s">
-        <v>40</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" t="s">
-        <v>288</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="H102"/>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="H103" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
-      </c>
-      <c r="E104"/>
+        <v>240</v>
+      </c>
+      <c r="E104" t="s">
+        <v>46</v>
+      </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G104" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H104" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="I104" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105"/>
+        <v>240</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c r="G105" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H105" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="I105" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
-      </c>
-      <c r="E106"/>
+        <v>240</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G106" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H106" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="I106" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>207</v>
-      </c>
-      <c r="E107"/>
+        <v>240</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G107" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H107" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="I107" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108"/>
+        <v>240</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G108" t="s">
-        <v>294</v>
-      </c>
-      <c r="H108"/>
+        <v>303</v>
+      </c>
+      <c r="H108" t="s">
+        <v>65</v>
+      </c>
       <c r="I108" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
-      </c>
-      <c r="E109"/>
+        <v>240</v>
+      </c>
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="G109" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H109" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="I109" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
-      </c>
-      <c r="E110"/>
+        <v>240</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
-      </c>
-      <c r="H110"/>
+        <v>68</v>
+      </c>
+      <c r="H110" t="s">
+        <v>317</v>
+      </c>
       <c r="I110" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G111" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H111" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="I111" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="H112" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I112" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="H113" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I113" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="D114" t="s">
-        <v>207</v>
-      </c>
-      <c r="E114"/>
+        <v>240</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G114" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H114" t="s">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="I114" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="D115" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
-      </c>
-      <c r="H115" t="s">
-        <v>63</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="H115"/>
       <c r="I115" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
-      </c>
-      <c r="E116"/>
+        <v>240</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="G116" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="H116" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="I116" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B117" t="s">
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="G117" t="s">
-        <v>319</v>
-      </c>
-      <c r="H117" t="s">
-        <v>269</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H117"/>
       <c r="I117" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D118" t="s">
-        <v>207</v>
-      </c>
-      <c r="E118"/>
+        <v>240</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
       <c r="F118" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="G118" t="s">
-        <v>319</v>
-      </c>
-      <c r="H118"/>
+        <v>332</v>
+      </c>
+      <c r="H118" t="s">
+        <v>299</v>
+      </c>
       <c r="I118" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E119"/>
+        <v>240</v>
+      </c>
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="G119" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H119" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="I119" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B120" t="s">
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="D120" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120"/>
+        <v>240</v>
+      </c>
+      <c r="E120" t="s">
+        <v>42</v>
+      </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120"/>
+        <v>165</v>
+      </c>
+      <c r="G120" t="s">
+        <v>332</v>
+      </c>
       <c r="H120" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="I120" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>316</v>
-      </c>
-      <c r="H121" t="s">
-        <v>284</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="H121"/>
       <c r="I121" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B122" t="s">
         <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
         <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H122" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="I122" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H123" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="I123" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="H124" t="s">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="I124" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
         <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="H125" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I125" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
-      </c>
-      <c r="E126"/>
+        <v>240</v>
+      </c>
+      <c r="E126" t="s">
+        <v>42</v>
+      </c>
       <c r="F126" t="s">
         <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="H126" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="I126" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
-      </c>
-      <c r="E127"/>
+        <v>240</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
       <c r="F127" t="s">
         <v>21</v>
       </c>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="H127" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I127" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
-      </c>
-      <c r="E128"/>
+        <v>240</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
       <c r="F128" t="s">
         <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="H128" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="I128" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
-      </c>
-      <c r="E129"/>
+        <v>240</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
       <c r="F129" t="s">
         <v>21</v>
       </c>
       <c r="G129" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="H129" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="I129" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
-      </c>
-      <c r="E130"/>
+        <v>240</v>
+      </c>
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
       <c r="F130" t="s">
         <v>21</v>
       </c>
       <c r="G130" t="s">
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="H130" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="I130" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="D131" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="H131" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="I131" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B132" t="s">
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
-      </c>
-      <c r="E132"/>
+        <v>240</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="H132" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="I132" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>360</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+      <c r="D133" t="s">
+        <v>240</v>
+      </c>
+      <c r="E133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>250</v>
+      </c>
+      <c r="H133" t="s">
+        <v>309</v>
+      </c>
+      <c r="I133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>295</v>
+      </c>
+      <c r="D134" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>137</v>
+      </c>
+      <c r="H134" t="s">
+        <v>248</v>
+      </c>
+      <c r="I134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>295</v>
+      </c>
+      <c r="D135" t="s">
+        <v>240</v>
+      </c>
+      <c r="E135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>206</v>
+      </c>
+      <c r="H135" t="s">
+        <v>356</v>
+      </c>
+      <c r="I135" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>364</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" t="s">
+        <v>240</v>
+      </c>
+      <c r="E136" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>273</v>
+      </c>
+      <c r="H136" t="s">
+        <v>306</v>
+      </c>
+      <c r="I136" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
